--- a/bin/sheets/main_db/active_players/odi/ActivePlayers_SAF.xlsx
+++ b/bin/sheets/main_db/active_players/odi/ActivePlayers_SAF.xlsx
@@ -460,7 +460,7 @@
         <v>4370</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -499,7 +499,7 @@
         <v>3988</v>
       </c>
       <c r="C5" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -616,7 +616,7 @@
         <v>5974</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>4731</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -655,7 +655,7 @@
         <v>5985</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -694,7 +694,7 @@
         <v>4701</v>
       </c>
       <c r="C20" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3783</v>
       </c>
       <c r="C21" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -733,7 +733,7 @@
         <v>4636</v>
       </c>
       <c r="C23" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>4929</v>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -811,7 +811,7 @@
         <v>4339</v>
       </c>
       <c r="C29" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -850,7 +850,7 @@
         <v>4562</v>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -902,7 +902,7 @@
         <v>4817</v>
       </c>
       <c r="C36" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">

--- a/bin/sheets/main_db/active_players/odi/ActivePlayers_SAF.xlsx
+++ b/bin/sheets/main_db/active_players/odi/ActivePlayers_SAF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Active Players" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Active Players" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
